--- a/Financials/Yearly/AEG_YR_FIN.xlsx
+++ b/Financials/Yearly/AEG_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C94E4A-3B76-42C4-B210-2C9FF4189372}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AEG" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>AEG</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,140 +689,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>67629100</v>
+        <v>23065900</v>
       </c>
       <c r="E8" s="3">
-        <v>62350400</v>
+        <v>64643500</v>
       </c>
       <c r="F8" s="3">
-        <v>43969700</v>
+        <v>59597900</v>
       </c>
       <c r="G8" s="3">
-        <v>54901400</v>
+        <v>42027500</v>
       </c>
       <c r="H8" s="3">
-        <v>56845300</v>
+        <v>52476600</v>
       </c>
       <c r="I8" s="3">
-        <v>54676100</v>
+        <v>54335700</v>
       </c>
       <c r="J8" s="3">
+        <v>52262300</v>
+      </c>
+      <c r="K8" s="3">
         <v>35591100</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>60212900</v>
+        <v>17846400</v>
       </c>
       <c r="E9" s="3">
-        <v>56273600</v>
+        <v>57554700</v>
       </c>
       <c r="F9" s="3">
-        <v>38104200</v>
+        <v>53789300</v>
       </c>
       <c r="G9" s="3">
-        <v>48900900</v>
+        <v>36422000</v>
       </c>
       <c r="H9" s="3">
-        <v>50813100</v>
+        <v>46742100</v>
       </c>
       <c r="I9" s="3">
-        <v>59093100</v>
+        <v>48569800</v>
       </c>
       <c r="J9" s="3">
+        <v>56484300</v>
+      </c>
+      <c r="K9" s="3">
         <v>42243100</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7416100</v>
+        <v>5219500</v>
       </c>
       <c r="E10" s="3">
-        <v>6076800</v>
+        <v>7088700</v>
       </c>
       <c r="F10" s="3">
-        <v>5865500</v>
+        <v>5808500</v>
       </c>
       <c r="G10" s="3">
-        <v>6000500</v>
+        <v>5605500</v>
       </c>
       <c r="H10" s="3">
-        <v>6032200</v>
+        <v>5734500</v>
       </c>
       <c r="I10" s="3">
-        <v>-4417000</v>
+        <v>5765900</v>
       </c>
       <c r="J10" s="3">
+        <v>-4222000</v>
+      </c>
+      <c r="K10" s="3">
         <v>-6652000</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +846,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,9 +873,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,36 +903,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-177200</v>
+        <v>-205300</v>
       </c>
       <c r="E14" s="3">
-        <v>29300</v>
+        <v>-169400</v>
       </c>
       <c r="F14" s="3">
-        <v>1298200</v>
+        <v>28000</v>
       </c>
       <c r="G14" s="3">
-        <v>102100</v>
+        <v>1240900</v>
       </c>
       <c r="H14" s="3">
-        <v>345100</v>
+        <v>97600</v>
       </c>
       <c r="I14" s="3">
-        <v>233600</v>
+        <v>329900</v>
       </c>
       <c r="J14" s="3">
+        <v>223300</v>
+      </c>
+      <c r="K14" s="3">
         <v>567000</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -906,9 +963,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +977,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>65024400</v>
+        <v>22431900</v>
       </c>
       <c r="E17" s="3">
-        <v>61568700</v>
+        <v>62153800</v>
       </c>
       <c r="F17" s="3">
-        <v>44885300</v>
+        <v>58850600</v>
       </c>
       <c r="G17" s="3">
-        <v>53264000</v>
+        <v>42903800</v>
       </c>
       <c r="H17" s="3">
-        <v>55477800</v>
+        <v>50912500</v>
       </c>
       <c r="I17" s="3">
-        <v>52503300</v>
+        <v>53028600</v>
       </c>
       <c r="J17" s="3">
+        <v>50185500</v>
+      </c>
+      <c r="K17" s="3">
         <v>34524100</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2604700</v>
+        <v>633900</v>
       </c>
       <c r="E18" s="3">
-        <v>781800</v>
+        <v>2489700</v>
       </c>
       <c r="F18" s="3">
-        <v>-915600</v>
+        <v>747200</v>
       </c>
       <c r="G18" s="3">
-        <v>1637500</v>
+        <v>-876300</v>
       </c>
       <c r="H18" s="3">
-        <v>1367500</v>
+        <v>1564100</v>
       </c>
       <c r="I18" s="3">
-        <v>2172700</v>
+        <v>1307100</v>
       </c>
       <c r="J18" s="3">
+        <v>2076800</v>
+      </c>
+      <c r="K18" s="3">
         <v>1067000</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,62 +1051,69 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>204200</v>
+        <v>243500</v>
       </c>
       <c r="E20" s="3">
-        <v>163200</v>
+        <v>195200</v>
       </c>
       <c r="F20" s="3">
-        <v>171400</v>
+        <v>156000</v>
       </c>
       <c r="G20" s="3">
-        <v>93900</v>
+        <v>164900</v>
       </c>
       <c r="H20" s="3">
-        <v>24700</v>
+        <v>90900</v>
       </c>
       <c r="I20" s="3">
-        <v>17600</v>
+        <v>23600</v>
       </c>
       <c r="J20" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K20" s="3">
         <v>34000</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3726300</v>
+        <v>2356400</v>
       </c>
       <c r="E21" s="3">
-        <v>2363800</v>
+        <v>3563300</v>
       </c>
       <c r="F21" s="3">
-        <v>1040000</v>
+        <v>2261800</v>
       </c>
       <c r="G21" s="3">
-        <v>2840200</v>
+        <v>997100</v>
       </c>
       <c r="H21" s="3">
-        <v>2579700</v>
+        <v>2716600</v>
       </c>
       <c r="I21" s="3">
-        <v>3645700</v>
+        <v>2467700</v>
       </c>
       <c r="J21" s="3">
+        <v>3487100</v>
+      </c>
+      <c r="K21" s="3">
         <v>3040300</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1064,63 +1138,72 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2808900</v>
+        <v>877400</v>
       </c>
       <c r="E23" s="3">
-        <v>944900</v>
+        <v>2684900</v>
       </c>
       <c r="F23" s="3">
-        <v>-744200</v>
+        <v>903200</v>
       </c>
       <c r="G23" s="3">
-        <v>1731400</v>
+        <v>-711300</v>
       </c>
       <c r="H23" s="3">
-        <v>1392100</v>
+        <v>1654900</v>
       </c>
       <c r="I23" s="3">
-        <v>2190300</v>
+        <v>1330700</v>
       </c>
       <c r="J23" s="3">
+        <v>2093600</v>
+      </c>
+      <c r="K23" s="3">
         <v>1101000</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>37600</v>
+        <v>41500</v>
       </c>
       <c r="E24" s="3">
-        <v>257100</v>
+        <v>35900</v>
       </c>
       <c r="F24" s="3">
-        <v>-130300</v>
+        <v>245700</v>
       </c>
       <c r="G24" s="3">
-        <v>328700</v>
+        <v>-124500</v>
       </c>
       <c r="H24" s="3">
-        <v>234800</v>
+        <v>314200</v>
       </c>
       <c r="I24" s="3">
-        <v>379100</v>
+        <v>224400</v>
       </c>
       <c r="J24" s="3">
+        <v>362400</v>
+      </c>
+      <c r="K24" s="3">
         <v>59900</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1228,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2771400</v>
+        <v>835900</v>
       </c>
       <c r="E26" s="3">
-        <v>687900</v>
+        <v>2649000</v>
       </c>
       <c r="F26" s="3">
-        <v>-613900</v>
+        <v>657500</v>
       </c>
       <c r="G26" s="3">
-        <v>1402700</v>
+        <v>-586800</v>
       </c>
       <c r="H26" s="3">
-        <v>1157400</v>
+        <v>1340800</v>
       </c>
       <c r="I26" s="3">
-        <v>1811200</v>
+        <v>1106300</v>
       </c>
       <c r="J26" s="3">
+        <v>1731200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1041200</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2617600</v>
+        <v>708000</v>
       </c>
       <c r="E27" s="3">
-        <v>531700</v>
+        <v>2502000</v>
       </c>
       <c r="F27" s="3">
-        <v>-779400</v>
+        <v>508300</v>
       </c>
       <c r="G27" s="3">
-        <v>1224300</v>
+        <v>-745000</v>
       </c>
       <c r="H27" s="3">
-        <v>865100</v>
+        <v>1170200</v>
       </c>
       <c r="I27" s="3">
-        <v>1513000</v>
+        <v>826900</v>
       </c>
       <c r="J27" s="3">
+        <v>1446200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-112700</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,9 +1318,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1253,9 +1348,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1378,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1408,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-204200</v>
+        <v>-243500</v>
       </c>
       <c r="E32" s="3">
-        <v>-163200</v>
+        <v>-195200</v>
       </c>
       <c r="F32" s="3">
-        <v>-171400</v>
+        <v>-156000</v>
       </c>
       <c r="G32" s="3">
-        <v>-93900</v>
+        <v>-164900</v>
       </c>
       <c r="H32" s="3">
-        <v>-24700</v>
+        <v>-90900</v>
       </c>
       <c r="I32" s="3">
-        <v>-17600</v>
+        <v>-23600</v>
       </c>
       <c r="J32" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-34000</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2617600</v>
+        <v>708000</v>
       </c>
       <c r="E33" s="3">
-        <v>531700</v>
+        <v>2502000</v>
       </c>
       <c r="F33" s="3">
-        <v>-779400</v>
+        <v>508300</v>
       </c>
       <c r="G33" s="3">
-        <v>1224300</v>
+        <v>-745000</v>
       </c>
       <c r="H33" s="3">
-        <v>865100</v>
+        <v>1170200</v>
       </c>
       <c r="I33" s="3">
-        <v>1513000</v>
+        <v>826900</v>
       </c>
       <c r="J33" s="3">
+        <v>1446200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-112700</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1498,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2617600</v>
+        <v>708000</v>
       </c>
       <c r="E35" s="3">
-        <v>531700</v>
+        <v>2502000</v>
       </c>
       <c r="F35" s="3">
-        <v>-779400</v>
+        <v>508300</v>
       </c>
       <c r="G35" s="3">
-        <v>1224300</v>
+        <v>-745000</v>
       </c>
       <c r="H35" s="3">
-        <v>865100</v>
+        <v>1170200</v>
       </c>
       <c r="I35" s="3">
-        <v>1513000</v>
+        <v>826900</v>
       </c>
       <c r="J35" s="3">
+        <v>1446200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-112700</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1580,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,35 +1594,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12639600</v>
+        <v>9810700</v>
       </c>
       <c r="E41" s="3">
-        <v>13319200</v>
+        <v>12081600</v>
       </c>
       <c r="F41" s="3">
-        <v>22523100</v>
+        <v>12731200</v>
       </c>
       <c r="G41" s="3">
-        <v>24908200</v>
+        <v>21528700</v>
       </c>
       <c r="H41" s="3">
-        <v>13360300</v>
+        <v>23808600</v>
       </c>
       <c r="I41" s="3">
-        <v>21373900</v>
+        <v>12770500</v>
       </c>
       <c r="J41" s="3">
+        <v>20430300</v>
+      </c>
+      <c r="K41" s="3">
         <v>9512600</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1527,36 +1651,42 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4820800</v>
+        <v>2798200</v>
       </c>
       <c r="E43" s="3">
-        <v>5140100</v>
+        <v>4608000</v>
       </c>
       <c r="F43" s="3">
-        <v>2096400</v>
+        <v>4913200</v>
       </c>
       <c r="G43" s="3">
-        <v>2470900</v>
+        <v>2003900</v>
       </c>
       <c r="H43" s="3">
-        <v>1785400</v>
+        <v>2361800</v>
       </c>
       <c r="I43" s="3">
-        <v>2088200</v>
-      </c>
-      <c r="J43" s="3" t="s">
+        <v>1706500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1996000</v>
+      </c>
+      <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1581,9 +1711,12 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1608,9 +1741,12 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1635,90 +1771,102 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>165541000</v>
+        <v>159234000</v>
       </c>
       <c r="E47" s="3">
-        <v>188806000</v>
+        <v>158233000</v>
       </c>
       <c r="F47" s="3">
-        <v>192521000</v>
+        <v>180471000</v>
       </c>
       <c r="G47" s="3">
-        <v>587276000</v>
+        <v>184022000</v>
       </c>
       <c r="H47" s="3">
-        <v>515399000</v>
+        <v>561350000</v>
       </c>
       <c r="I47" s="3">
-        <v>549729000</v>
+        <v>492646000</v>
       </c>
       <c r="J47" s="3">
+        <v>525461000</v>
+      </c>
+      <c r="K47" s="3">
         <v>353462000</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3142300</v>
+        <v>3588100</v>
       </c>
       <c r="E48" s="3">
-        <v>3017900</v>
+        <v>3003600</v>
       </c>
       <c r="F48" s="3">
-        <v>3010800</v>
+        <v>2884600</v>
       </c>
       <c r="G48" s="3">
-        <v>3993300</v>
+        <v>2877900</v>
       </c>
       <c r="H48" s="3">
-        <v>3539000</v>
+        <v>3817000</v>
       </c>
       <c r="I48" s="3">
-        <v>4724600</v>
+        <v>3382800</v>
       </c>
       <c r="J48" s="3">
+        <v>4516000</v>
+      </c>
+      <c r="K48" s="3">
         <v>3926400</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1916800</v>
+        <v>1937700</v>
       </c>
       <c r="E49" s="3">
-        <v>2136300</v>
+        <v>1832200</v>
       </c>
       <c r="F49" s="3">
-        <v>2582400</v>
+        <v>2042000</v>
       </c>
       <c r="G49" s="3">
-        <v>2688000</v>
+        <v>2468400</v>
       </c>
       <c r="H49" s="3">
-        <v>5303300</v>
+        <v>2569400</v>
       </c>
       <c r="I49" s="3">
-        <v>9837700</v>
+        <v>5069200</v>
       </c>
       <c r="J49" s="3">
+        <v>9403400</v>
+      </c>
+      <c r="K49" s="3">
         <v>11567900</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1891,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1921,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6318600</v>
+        <v>140200</v>
       </c>
       <c r="E52" s="3">
-        <v>10380000</v>
+        <v>6039700</v>
       </c>
       <c r="F52" s="3">
-        <v>77500</v>
+        <v>9921800</v>
       </c>
       <c r="G52" s="3">
-        <v>11674700</v>
+        <v>74100</v>
       </c>
       <c r="H52" s="3">
-        <v>232400</v>
+        <v>11159300</v>
       </c>
       <c r="I52" s="3">
-        <v>135000</v>
+        <v>222200</v>
       </c>
       <c r="J52" s="3">
+        <v>129000</v>
+      </c>
+      <c r="K52" s="3">
         <v>460100</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1981,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>465170000</v>
+        <v>440977000</v>
       </c>
       <c r="E54" s="3">
-        <v>499967000</v>
+        <v>444635000</v>
       </c>
       <c r="F54" s="3">
-        <v>487987000</v>
+        <v>477895000</v>
       </c>
       <c r="G54" s="3">
-        <v>498338000</v>
+        <v>466444000</v>
       </c>
       <c r="H54" s="3">
-        <v>413017000</v>
+        <v>476338000</v>
       </c>
       <c r="I54" s="3">
-        <v>428243000</v>
+        <v>394783000</v>
       </c>
       <c r="J54" s="3">
+        <v>409338000</v>
+      </c>
+      <c r="K54" s="3">
         <v>405406000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2028,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,8 +2042,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1904,63 +2069,72 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2072900</v>
+        <v>1639200</v>
       </c>
       <c r="E58" s="3">
-        <v>2384000</v>
+        <v>1981400</v>
       </c>
       <c r="F58" s="3">
-        <v>3183400</v>
+        <v>2278800</v>
       </c>
       <c r="G58" s="3">
-        <v>4418200</v>
+        <v>3042800</v>
       </c>
       <c r="H58" s="3">
-        <v>2129300</v>
+        <v>4223200</v>
       </c>
       <c r="I58" s="3">
-        <v>129100</v>
+        <v>2035300</v>
       </c>
       <c r="J58" s="3">
+        <v>123400</v>
+      </c>
+      <c r="K58" s="3">
         <v>347400</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>384059000</v>
+        <v>372032000</v>
       </c>
       <c r="E59" s="3">
-        <v>408735000</v>
+        <v>367104000</v>
       </c>
       <c r="F59" s="3">
-        <v>548382000</v>
+        <v>390690000</v>
       </c>
       <c r="G59" s="3">
-        <v>510884000</v>
+        <v>524172000</v>
       </c>
       <c r="H59" s="3">
-        <v>454003000</v>
+        <v>488330000</v>
       </c>
       <c r="I59" s="3">
-        <v>329938000</v>
+        <v>433960000</v>
       </c>
       <c r="J59" s="3">
+        <v>315372000</v>
+      </c>
+      <c r="K59" s="3">
         <v>434802000</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1985,63 +2159,72 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15071700</v>
+        <v>13692800</v>
       </c>
       <c r="E61" s="3">
-        <v>14290000</v>
+        <v>14406400</v>
       </c>
       <c r="F61" s="3">
-        <v>12646600</v>
+        <v>13659100</v>
       </c>
       <c r="G61" s="3">
-        <v>17663500</v>
+        <v>12088300</v>
       </c>
       <c r="H61" s="3">
-        <v>13143200</v>
+        <v>16883700</v>
       </c>
       <c r="I61" s="3">
-        <v>16361700</v>
+        <v>12562900</v>
       </c>
       <c r="J61" s="3">
+        <v>15639400</v>
+      </c>
+      <c r="K61" s="3">
         <v>11763900</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6006400</v>
+        <v>5169000</v>
       </c>
       <c r="E62" s="3">
-        <v>8375100</v>
+        <v>5741200</v>
       </c>
       <c r="F62" s="3">
-        <v>7974900</v>
+        <v>8005400</v>
       </c>
       <c r="G62" s="3">
-        <v>8695600</v>
+        <v>7622800</v>
       </c>
       <c r="H62" s="3">
-        <v>5536900</v>
+        <v>8311700</v>
       </c>
       <c r="I62" s="3">
-        <v>10409300</v>
+        <v>5292400</v>
       </c>
       <c r="J62" s="3">
+        <v>9949800</v>
+      </c>
+      <c r="K62" s="3">
         <v>5497000</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2249,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2279,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2309,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>436569000</v>
+        <v>415325000</v>
       </c>
       <c r="E66" s="3">
-        <v>470961000</v>
+        <v>417296000</v>
       </c>
       <c r="F66" s="3">
-        <v>456899000</v>
+        <v>450169000</v>
       </c>
       <c r="G66" s="3">
-        <v>465459000</v>
+        <v>436728000</v>
       </c>
       <c r="H66" s="3">
-        <v>386361000</v>
+        <v>444911000</v>
       </c>
       <c r="I66" s="3">
-        <v>394829000</v>
+        <v>369304000</v>
       </c>
       <c r="J66" s="3">
+        <v>377398000</v>
+      </c>
+      <c r="K66" s="3">
         <v>375215000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2356,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2383,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2413,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2236,14 +2438,17 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>97400</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>93100</v>
+      </c>
+      <c r="K70" s="3">
         <v>95100</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2473,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11790900</v>
+        <v>11633900</v>
       </c>
       <c r="E72" s="3">
-        <v>9470300</v>
+        <v>11270400</v>
       </c>
       <c r="F72" s="3">
-        <v>11380100</v>
+        <v>9052200</v>
       </c>
       <c r="G72" s="3">
-        <v>10929300</v>
+        <v>10877700</v>
       </c>
       <c r="H72" s="3">
-        <v>8296500</v>
+        <v>10446800</v>
       </c>
       <c r="I72" s="3">
-        <v>11274400</v>
+        <v>7930200</v>
       </c>
       <c r="J72" s="3">
+        <v>10776700</v>
+      </c>
+      <c r="K72" s="3">
         <v>10201600</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2533,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2563,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2593,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28601100</v>
+        <v>25652100</v>
       </c>
       <c r="E76" s="3">
-        <v>29006000</v>
+        <v>27338400</v>
       </c>
       <c r="F76" s="3">
-        <v>31088400</v>
+        <v>27725500</v>
       </c>
       <c r="G76" s="3">
-        <v>32878400</v>
+        <v>29715900</v>
       </c>
       <c r="H76" s="3">
-        <v>26656100</v>
+        <v>31426900</v>
       </c>
       <c r="I76" s="3">
-        <v>33317400</v>
+        <v>25479300</v>
       </c>
       <c r="J76" s="3">
+        <v>31846600</v>
+      </c>
+      <c r="K76" s="3">
         <v>30095300</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2653,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2617600</v>
+        <v>708000</v>
       </c>
       <c r="E81" s="3">
-        <v>531700</v>
+        <v>2502000</v>
       </c>
       <c r="F81" s="3">
-        <v>-779400</v>
+        <v>508300</v>
       </c>
       <c r="G81" s="3">
-        <v>1224300</v>
+        <v>-745000</v>
       </c>
       <c r="H81" s="3">
-        <v>865100</v>
+        <v>1170200</v>
       </c>
       <c r="I81" s="3">
-        <v>1513000</v>
+        <v>826900</v>
       </c>
       <c r="J81" s="3">
+        <v>1446200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-112700</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2735,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>916700</v>
+        <v>1475400</v>
       </c>
       <c r="E83" s="3">
-        <v>1418000</v>
+        <v>876300</v>
       </c>
       <c r="F83" s="3">
-        <v>1783000</v>
+        <v>1355400</v>
       </c>
       <c r="G83" s="3">
-        <v>1108100</v>
+        <v>1704300</v>
       </c>
       <c r="H83" s="3">
-        <v>1186700</v>
+        <v>1059200</v>
       </c>
       <c r="I83" s="3">
-        <v>1454400</v>
+        <v>1134300</v>
       </c>
       <c r="J83" s="3">
+        <v>1390100</v>
+      </c>
+      <c r="K83" s="3">
         <v>1938000</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2792,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2822,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2852,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2882,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2912,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>649100</v>
+        <v>580100</v>
       </c>
       <c r="E89" s="3">
-        <v>3895900</v>
+        <v>620500</v>
       </c>
       <c r="F89" s="3">
-        <v>1072900</v>
+        <v>3723900</v>
       </c>
       <c r="G89" s="3">
-        <v>4838400</v>
+        <v>1025500</v>
       </c>
       <c r="H89" s="3">
-        <v>-2360500</v>
+        <v>4624800</v>
       </c>
       <c r="I89" s="3">
-        <v>-1440300</v>
+        <v>-2256300</v>
       </c>
       <c r="J89" s="3">
+        <v>-1376700</v>
+      </c>
+      <c r="K89" s="3">
         <v>2659900</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2959,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-90900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-80800</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-77400</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-101000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-86400</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-74100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-70700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-84500</v>
       </c>
-      <c r="E91" s="3">
-        <v>-81000</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-105600</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-90400</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-77500</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-74000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-84500</v>
-      </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3016,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3046,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1403900</v>
+        <v>-491400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1265400</v>
+        <v>-1341900</v>
       </c>
       <c r="F94" s="3">
-        <v>721900</v>
+        <v>-1209500</v>
       </c>
       <c r="G94" s="3">
-        <v>-83300</v>
+        <v>690000</v>
       </c>
       <c r="H94" s="3">
-        <v>605700</v>
+        <v>-79700</v>
       </c>
       <c r="I94" s="3">
-        <v>278200</v>
+        <v>578900</v>
       </c>
       <c r="J94" s="3">
+        <v>265900</v>
+      </c>
+      <c r="K94" s="3">
         <v>766500</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3093,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-345100</v>
+        <v>-368000</v>
       </c>
       <c r="E96" s="3">
-        <v>-359200</v>
+        <v>-329900</v>
       </c>
       <c r="F96" s="3">
-        <v>-342800</v>
+        <v>-343300</v>
       </c>
       <c r="G96" s="3">
-        <v>-312200</v>
+        <v>-327600</v>
       </c>
       <c r="H96" s="3">
-        <v>-379100</v>
+        <v>-298400</v>
       </c>
       <c r="I96" s="3">
-        <v>-243000</v>
+        <v>-362400</v>
       </c>
       <c r="J96" s="3">
+        <v>-232300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-69300</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3150,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3180,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3210,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>609200</v>
+        <v>-2687200</v>
       </c>
       <c r="E100" s="3">
-        <v>-545800</v>
+        <v>582300</v>
       </c>
       <c r="F100" s="3">
-        <v>-3269100</v>
+        <v>-521700</v>
       </c>
       <c r="G100" s="3">
-        <v>839300</v>
+        <v>-3124700</v>
       </c>
       <c r="H100" s="3">
-        <v>-2665700</v>
+        <v>802200</v>
       </c>
       <c r="I100" s="3">
-        <v>3217400</v>
+        <v>-2548000</v>
       </c>
       <c r="J100" s="3">
+        <v>3075400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-439000</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-230100</v>
+        <v>39300</v>
       </c>
       <c r="E101" s="3">
-        <v>-27000</v>
+        <v>-219900</v>
       </c>
       <c r="F101" s="3">
-        <v>234800</v>
+        <v>-25800</v>
       </c>
       <c r="G101" s="3">
-        <v>271200</v>
+        <v>224400</v>
       </c>
       <c r="H101" s="3">
-        <v>-92700</v>
+        <v>259200</v>
       </c>
       <c r="I101" s="3">
-        <v>34000</v>
+        <v>-88600</v>
       </c>
       <c r="J101" s="3">
+        <v>32500</v>
+      </c>
+      <c r="K101" s="3">
         <v>125600</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-375600</v>
+        <v>-2559300</v>
       </c>
       <c r="E102" s="3">
-        <v>2057700</v>
+        <v>-359000</v>
       </c>
       <c r="F102" s="3">
-        <v>-1239500</v>
+        <v>1966800</v>
       </c>
       <c r="G102" s="3">
-        <v>5865500</v>
+        <v>-1184800</v>
       </c>
       <c r="H102" s="3">
-        <v>-4513300</v>
+        <v>5606600</v>
       </c>
       <c r="I102" s="3">
-        <v>2089400</v>
+        <v>-4314100</v>
       </c>
       <c r="J102" s="3">
+        <v>1997100</v>
+      </c>
+      <c r="K102" s="3">
         <v>3112900</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/AEG_YR_FIN.xlsx
+++ b/Financials/Yearly/AEG_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C94E4A-3B76-42C4-B210-2C9FF4189372}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="AEG" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,32 +654,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,97 +709,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>23065900</v>
+        <v>22572700</v>
       </c>
       <c r="E8" s="3">
-        <v>64643500</v>
+        <v>63261300</v>
       </c>
       <c r="F8" s="3">
-        <v>59597900</v>
+        <v>58323600</v>
       </c>
       <c r="G8" s="3">
-        <v>42027500</v>
+        <v>41128900</v>
       </c>
       <c r="H8" s="3">
-        <v>52476600</v>
+        <v>51354600</v>
       </c>
       <c r="I8" s="3">
-        <v>54335700</v>
+        <v>53173900</v>
       </c>
       <c r="J8" s="3">
-        <v>52262300</v>
+        <v>51144800</v>
       </c>
       <c r="K8" s="3">
         <v>35591100</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>17846400</v>
+        <v>17464800</v>
       </c>
       <c r="E9" s="3">
-        <v>57554700</v>
+        <v>56324100</v>
       </c>
       <c r="F9" s="3">
-        <v>53789300</v>
+        <v>52639200</v>
       </c>
       <c r="G9" s="3">
-        <v>36422000</v>
+        <v>35643300</v>
       </c>
       <c r="H9" s="3">
-        <v>46742100</v>
+        <v>45742700</v>
       </c>
       <c r="I9" s="3">
-        <v>48569800</v>
+        <v>47531300</v>
       </c>
       <c r="J9" s="3">
-        <v>56484300</v>
+        <v>55276600</v>
       </c>
       <c r="K9" s="3">
         <v>42243100</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5219500</v>
+        <v>5107900</v>
       </c>
       <c r="E10" s="3">
-        <v>7088700</v>
+        <v>6937200</v>
       </c>
       <c r="F10" s="3">
-        <v>5808500</v>
+        <v>5684300</v>
       </c>
       <c r="G10" s="3">
-        <v>5605500</v>
+        <v>5485600</v>
       </c>
       <c r="H10" s="3">
-        <v>5734500</v>
+        <v>5611900</v>
       </c>
       <c r="I10" s="3">
-        <v>5765900</v>
+        <v>5642600</v>
       </c>
       <c r="J10" s="3">
-        <v>-4222000</v>
+        <v>-4131800</v>
       </c>
       <c r="K10" s="3">
         <v>-6652000</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,7 +813,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,7 +843,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,37 +873,37 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-205300</v>
+        <v>-200900</v>
       </c>
       <c r="E14" s="3">
-        <v>-169400</v>
+        <v>-165800</v>
       </c>
       <c r="F14" s="3">
-        <v>28000</v>
+        <v>27500</v>
       </c>
       <c r="G14" s="3">
-        <v>1240900</v>
+        <v>1214400</v>
       </c>
       <c r="H14" s="3">
-        <v>97600</v>
+        <v>95500</v>
       </c>
       <c r="I14" s="3">
-        <v>329900</v>
+        <v>322800</v>
       </c>
       <c r="J14" s="3">
-        <v>223300</v>
+        <v>218500</v>
       </c>
       <c r="K14" s="3">
         <v>567000</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -968,7 +933,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -979,67 +944,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>22431900</v>
+        <v>21952300</v>
       </c>
       <c r="E17" s="3">
-        <v>62153800</v>
+        <v>60824800</v>
       </c>
       <c r="F17" s="3">
-        <v>58850600</v>
+        <v>57592300</v>
       </c>
       <c r="G17" s="3">
-        <v>42903800</v>
+        <v>41986400</v>
       </c>
       <c r="H17" s="3">
-        <v>50912500</v>
+        <v>49823900</v>
       </c>
       <c r="I17" s="3">
-        <v>53028600</v>
+        <v>51894800</v>
       </c>
       <c r="J17" s="3">
-        <v>50185500</v>
+        <v>49112400</v>
       </c>
       <c r="K17" s="3">
         <v>34524100</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>633900</v>
+        <v>620400</v>
       </c>
       <c r="E18" s="3">
-        <v>2489700</v>
+        <v>2436500</v>
       </c>
       <c r="F18" s="3">
-        <v>747200</v>
+        <v>731300</v>
       </c>
       <c r="G18" s="3">
-        <v>-876300</v>
+        <v>-857500</v>
       </c>
       <c r="H18" s="3">
-        <v>1564100</v>
+        <v>1530600</v>
       </c>
       <c r="I18" s="3">
-        <v>1307100</v>
+        <v>1279200</v>
       </c>
       <c r="J18" s="3">
-        <v>2076800</v>
+        <v>2032400</v>
       </c>
       <c r="K18" s="3">
         <v>1067000</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,67 +1018,67 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>243500</v>
+        <v>238300</v>
       </c>
       <c r="E20" s="3">
-        <v>195200</v>
+        <v>191100</v>
       </c>
       <c r="F20" s="3">
-        <v>156000</v>
+        <v>152600</v>
       </c>
       <c r="G20" s="3">
-        <v>164900</v>
+        <v>161400</v>
       </c>
       <c r="H20" s="3">
-        <v>90900</v>
+        <v>88900</v>
       </c>
       <c r="I20" s="3">
-        <v>23600</v>
+        <v>23100</v>
       </c>
       <c r="J20" s="3">
-        <v>16800</v>
+        <v>16500</v>
       </c>
       <c r="K20" s="3">
         <v>34000</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2356400</v>
+        <v>2304700</v>
       </c>
       <c r="E21" s="3">
-        <v>3563300</v>
+        <v>3486400</v>
       </c>
       <c r="F21" s="3">
-        <v>2261800</v>
+        <v>2212300</v>
       </c>
       <c r="G21" s="3">
-        <v>997100</v>
+        <v>974300</v>
       </c>
       <c r="H21" s="3">
-        <v>2716600</v>
+        <v>2657700</v>
       </c>
       <c r="I21" s="3">
-        <v>2467700</v>
+        <v>2414000</v>
       </c>
       <c r="J21" s="3">
-        <v>3487100</v>
+        <v>3411400</v>
       </c>
       <c r="K21" s="3">
         <v>3040300</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1143,67 +1108,67 @@
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>877400</v>
+        <v>858600</v>
       </c>
       <c r="E23" s="3">
-        <v>2684900</v>
+        <v>2627500</v>
       </c>
       <c r="F23" s="3">
-        <v>903200</v>
+        <v>883900</v>
       </c>
       <c r="G23" s="3">
-        <v>-711300</v>
+        <v>-696100</v>
       </c>
       <c r="H23" s="3">
-        <v>1654900</v>
+        <v>1619600</v>
       </c>
       <c r="I23" s="3">
-        <v>1330700</v>
+        <v>1302200</v>
       </c>
       <c r="J23" s="3">
-        <v>2093600</v>
+        <v>2048900</v>
       </c>
       <c r="K23" s="3">
         <v>1101000</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>41500</v>
+        <v>40600</v>
       </c>
       <c r="E24" s="3">
-        <v>35900</v>
+        <v>35100</v>
       </c>
       <c r="F24" s="3">
-        <v>245700</v>
+        <v>240500</v>
       </c>
       <c r="G24" s="3">
-        <v>-124500</v>
+        <v>-121900</v>
       </c>
       <c r="H24" s="3">
-        <v>314200</v>
+        <v>307400</v>
       </c>
       <c r="I24" s="3">
-        <v>224400</v>
+        <v>219600</v>
       </c>
       <c r="J24" s="3">
-        <v>362400</v>
+        <v>354700</v>
       </c>
       <c r="K24" s="3">
         <v>59900</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,67 +1198,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>835900</v>
+        <v>818000</v>
       </c>
       <c r="E26" s="3">
-        <v>2649000</v>
+        <v>2592400</v>
       </c>
       <c r="F26" s="3">
-        <v>657500</v>
+        <v>643400</v>
       </c>
       <c r="G26" s="3">
-        <v>-586800</v>
+        <v>-574300</v>
       </c>
       <c r="H26" s="3">
-        <v>1340800</v>
+        <v>1312100</v>
       </c>
       <c r="I26" s="3">
-        <v>1106300</v>
+        <v>1082600</v>
       </c>
       <c r="J26" s="3">
-        <v>1731200</v>
+        <v>1694200</v>
       </c>
       <c r="K26" s="3">
         <v>1041200</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>708000</v>
+        <v>692800</v>
       </c>
       <c r="E27" s="3">
-        <v>2502000</v>
+        <v>2448500</v>
       </c>
       <c r="F27" s="3">
-        <v>508300</v>
+        <v>497400</v>
       </c>
       <c r="G27" s="3">
-        <v>-745000</v>
+        <v>-729100</v>
       </c>
       <c r="H27" s="3">
-        <v>1170200</v>
+        <v>1145200</v>
       </c>
       <c r="I27" s="3">
-        <v>826900</v>
+        <v>809200</v>
       </c>
       <c r="J27" s="3">
-        <v>1446200</v>
+        <v>1415300</v>
       </c>
       <c r="K27" s="3">
         <v>-112700</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1323,7 +1288,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1353,7 +1318,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1383,7 +1348,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1413,67 +1378,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-243500</v>
+        <v>-238300</v>
       </c>
       <c r="E32" s="3">
-        <v>-195200</v>
+        <v>-191100</v>
       </c>
       <c r="F32" s="3">
-        <v>-156000</v>
+        <v>-152600</v>
       </c>
       <c r="G32" s="3">
-        <v>-164900</v>
+        <v>-161400</v>
       </c>
       <c r="H32" s="3">
-        <v>-90900</v>
+        <v>-88900</v>
       </c>
       <c r="I32" s="3">
-        <v>-23600</v>
+        <v>-23100</v>
       </c>
       <c r="J32" s="3">
-        <v>-16800</v>
+        <v>-16500</v>
       </c>
       <c r="K32" s="3">
         <v>-34000</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>708000</v>
+        <v>692800</v>
       </c>
       <c r="E33" s="3">
-        <v>2502000</v>
+        <v>2448500</v>
       </c>
       <c r="F33" s="3">
-        <v>508300</v>
+        <v>497400</v>
       </c>
       <c r="G33" s="3">
-        <v>-745000</v>
+        <v>-729100</v>
       </c>
       <c r="H33" s="3">
-        <v>1170200</v>
+        <v>1145200</v>
       </c>
       <c r="I33" s="3">
-        <v>826900</v>
+        <v>809200</v>
       </c>
       <c r="J33" s="3">
-        <v>1446200</v>
+        <v>1415300</v>
       </c>
       <c r="K33" s="3">
         <v>-112700</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1503,42 +1468,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>708000</v>
+        <v>692800</v>
       </c>
       <c r="E35" s="3">
-        <v>2502000</v>
+        <v>2448500</v>
       </c>
       <c r="F35" s="3">
-        <v>508300</v>
+        <v>497400</v>
       </c>
       <c r="G35" s="3">
-        <v>-745000</v>
+        <v>-729100</v>
       </c>
       <c r="H35" s="3">
-        <v>1170200</v>
+        <v>1145200</v>
       </c>
       <c r="I35" s="3">
-        <v>826900</v>
+        <v>809200</v>
       </c>
       <c r="J35" s="3">
-        <v>1446200</v>
+        <v>1415300</v>
       </c>
       <c r="K35" s="3">
         <v>-112700</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1568,7 +1533,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1582,7 +1547,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1596,37 +1561,37 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9810700</v>
+        <v>19201800</v>
       </c>
       <c r="E41" s="3">
-        <v>12081600</v>
+        <v>11823300</v>
       </c>
       <c r="F41" s="3">
-        <v>12731200</v>
+        <v>12459000</v>
       </c>
       <c r="G41" s="3">
-        <v>21528700</v>
+        <v>21068400</v>
       </c>
       <c r="H41" s="3">
-        <v>23808600</v>
+        <v>23299600</v>
       </c>
       <c r="I41" s="3">
-        <v>12770500</v>
+        <v>12497400</v>
       </c>
       <c r="J41" s="3">
-        <v>20430300</v>
+        <v>19993500</v>
       </c>
       <c r="K41" s="3">
         <v>9512600</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1656,37 +1621,37 @@
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2798200</v>
+        <v>2738400</v>
       </c>
       <c r="E43" s="3">
-        <v>4608000</v>
+        <v>4509500</v>
       </c>
       <c r="F43" s="3">
-        <v>4913200</v>
+        <v>4808100</v>
       </c>
       <c r="G43" s="3">
-        <v>2003900</v>
+        <v>1961000</v>
       </c>
       <c r="H43" s="3">
-        <v>2361800</v>
+        <v>2311300</v>
       </c>
       <c r="I43" s="3">
-        <v>1706500</v>
+        <v>1670100</v>
       </c>
       <c r="J43" s="3">
-        <v>1996000</v>
+        <v>1953300</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1716,7 +1681,7 @@
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1746,7 +1711,7 @@
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1776,97 +1741,97 @@
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>159234000</v>
+        <v>155829000</v>
       </c>
       <c r="E47" s="3">
-        <v>158233000</v>
+        <v>154850000</v>
       </c>
       <c r="F47" s="3">
-        <v>180471000</v>
+        <v>176612000</v>
       </c>
       <c r="G47" s="3">
-        <v>184022000</v>
+        <v>180087000</v>
       </c>
       <c r="H47" s="3">
-        <v>561350000</v>
+        <v>549347000</v>
       </c>
       <c r="I47" s="3">
-        <v>492646000</v>
+        <v>482112000</v>
       </c>
       <c r="J47" s="3">
-        <v>525461000</v>
+        <v>514225000</v>
       </c>
       <c r="K47" s="3">
         <v>353462000</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3588100</v>
+        <v>3511400</v>
       </c>
       <c r="E48" s="3">
-        <v>3003600</v>
+        <v>2939300</v>
       </c>
       <c r="F48" s="3">
-        <v>2884600</v>
+        <v>2823000</v>
       </c>
       <c r="G48" s="3">
-        <v>2877900</v>
+        <v>2816400</v>
       </c>
       <c r="H48" s="3">
-        <v>3817000</v>
+        <v>3735400</v>
       </c>
       <c r="I48" s="3">
-        <v>3382800</v>
+        <v>3310500</v>
       </c>
       <c r="J48" s="3">
-        <v>4516000</v>
+        <v>4419500</v>
       </c>
       <c r="K48" s="3">
         <v>3926400</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1937700</v>
+        <v>3792500</v>
       </c>
       <c r="E49" s="3">
-        <v>1832200</v>
+        <v>1793000</v>
       </c>
       <c r="F49" s="3">
-        <v>2042000</v>
+        <v>1998400</v>
       </c>
       <c r="G49" s="3">
-        <v>2468400</v>
+        <v>2415600</v>
       </c>
       <c r="H49" s="3">
-        <v>2569400</v>
+        <v>2514400</v>
       </c>
       <c r="I49" s="3">
-        <v>5069200</v>
+        <v>4960800</v>
       </c>
       <c r="J49" s="3">
-        <v>9403400</v>
+        <v>9202300</v>
       </c>
       <c r="K49" s="3">
         <v>11567900</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1896,7 +1861,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1926,37 +1891,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>140200</v>
+        <v>137300</v>
       </c>
       <c r="E52" s="3">
-        <v>6039700</v>
+        <v>5910500</v>
       </c>
       <c r="F52" s="3">
-        <v>9921800</v>
+        <v>9709600</v>
       </c>
       <c r="G52" s="3">
-        <v>74100</v>
+        <v>72500</v>
       </c>
       <c r="H52" s="3">
-        <v>11159300</v>
+        <v>10920700</v>
       </c>
       <c r="I52" s="3">
-        <v>222200</v>
+        <v>217400</v>
       </c>
       <c r="J52" s="3">
-        <v>129000</v>
+        <v>126300</v>
       </c>
       <c r="K52" s="3">
         <v>460100</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1986,37 +1951,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>440977000</v>
+        <v>431548000</v>
       </c>
       <c r="E54" s="3">
-        <v>444635000</v>
+        <v>435128000</v>
       </c>
       <c r="F54" s="3">
-        <v>477895000</v>
+        <v>467677000</v>
       </c>
       <c r="G54" s="3">
-        <v>466444000</v>
+        <v>456470000</v>
       </c>
       <c r="H54" s="3">
-        <v>476338000</v>
+        <v>466153000</v>
       </c>
       <c r="I54" s="3">
-        <v>394783000</v>
+        <v>386342000</v>
       </c>
       <c r="J54" s="3">
-        <v>409338000</v>
+        <v>400586000</v>
       </c>
       <c r="K54" s="3">
         <v>405406000</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2030,7 +1995,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2044,7 +2009,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2074,67 +2039,67 @@
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1639200</v>
+        <v>1604200</v>
       </c>
       <c r="E58" s="3">
-        <v>1981400</v>
+        <v>1939100</v>
       </c>
       <c r="F58" s="3">
-        <v>2278800</v>
+        <v>2230000</v>
       </c>
       <c r="G58" s="3">
-        <v>3042800</v>
+        <v>2977800</v>
       </c>
       <c r="H58" s="3">
-        <v>4223200</v>
+        <v>4132900</v>
       </c>
       <c r="I58" s="3">
-        <v>2035300</v>
+        <v>1991800</v>
       </c>
       <c r="J58" s="3">
-        <v>123400</v>
+        <v>120800</v>
       </c>
       <c r="K58" s="3">
         <v>347400</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>372032000</v>
+        <v>490707000</v>
       </c>
       <c r="E59" s="3">
-        <v>367104000</v>
+        <v>359255000</v>
       </c>
       <c r="F59" s="3">
-        <v>390690000</v>
+        <v>382337000</v>
       </c>
       <c r="G59" s="3">
-        <v>524172000</v>
+        <v>512965000</v>
       </c>
       <c r="H59" s="3">
-        <v>488330000</v>
+        <v>477889000</v>
       </c>
       <c r="I59" s="3">
-        <v>433960000</v>
+        <v>424681000</v>
       </c>
       <c r="J59" s="3">
-        <v>315372000</v>
+        <v>308629000</v>
       </c>
       <c r="K59" s="3">
         <v>434802000</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2164,67 +2129,67 @@
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13692800</v>
+        <v>14914100</v>
       </c>
       <c r="E61" s="3">
-        <v>14406400</v>
+        <v>14098300</v>
       </c>
       <c r="F61" s="3">
-        <v>13659100</v>
+        <v>13367100</v>
       </c>
       <c r="G61" s="3">
-        <v>12088300</v>
+        <v>11829900</v>
       </c>
       <c r="H61" s="3">
-        <v>16883700</v>
+        <v>16522700</v>
       </c>
       <c r="I61" s="3">
-        <v>12562900</v>
+        <v>12294300</v>
       </c>
       <c r="J61" s="3">
-        <v>15639400</v>
+        <v>15305000</v>
       </c>
       <c r="K61" s="3">
         <v>11763900</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5169000</v>
+        <v>5058500</v>
       </c>
       <c r="E62" s="3">
-        <v>5741200</v>
+        <v>5618500</v>
       </c>
       <c r="F62" s="3">
-        <v>8005400</v>
+        <v>7834200</v>
       </c>
       <c r="G62" s="3">
-        <v>7622800</v>
+        <v>7459800</v>
       </c>
       <c r="H62" s="3">
-        <v>8311700</v>
+        <v>8134000</v>
       </c>
       <c r="I62" s="3">
-        <v>5292400</v>
+        <v>5179300</v>
       </c>
       <c r="J62" s="3">
-        <v>9949800</v>
+        <v>9737100</v>
       </c>
       <c r="K62" s="3">
         <v>5497000</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2254,7 +2219,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2284,7 +2249,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2314,37 +2279,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>415325000</v>
+        <v>406472000</v>
       </c>
       <c r="E66" s="3">
-        <v>417296000</v>
+        <v>408374000</v>
       </c>
       <c r="F66" s="3">
-        <v>450169000</v>
+        <v>440544000</v>
       </c>
       <c r="G66" s="3">
-        <v>436728000</v>
+        <v>427390000</v>
       </c>
       <c r="H66" s="3">
-        <v>444911000</v>
+        <v>435398000</v>
       </c>
       <c r="I66" s="3">
-        <v>369304000</v>
+        <v>361408000</v>
       </c>
       <c r="J66" s="3">
-        <v>377398000</v>
+        <v>369329000</v>
       </c>
       <c r="K66" s="3">
         <v>375215000</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2358,7 +2323,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2388,7 +2353,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2418,7 +2383,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2441,14 +2406,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>93100</v>
+        <v>91100</v>
       </c>
       <c r="K70" s="3">
         <v>95100</v>
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2478,37 +2443,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11633900</v>
+        <v>11385200</v>
       </c>
       <c r="E72" s="3">
-        <v>11270400</v>
+        <v>11029400</v>
       </c>
       <c r="F72" s="3">
-        <v>9052200</v>
+        <v>8858700</v>
       </c>
       <c r="G72" s="3">
-        <v>10877700</v>
+        <v>10645100</v>
       </c>
       <c r="H72" s="3">
-        <v>10446800</v>
+        <v>10223500</v>
       </c>
       <c r="I72" s="3">
-        <v>7930200</v>
+        <v>7760700</v>
       </c>
       <c r="J72" s="3">
-        <v>10776700</v>
+        <v>10546300</v>
       </c>
       <c r="K72" s="3">
         <v>10201600</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +2503,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2568,7 +2533,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2598,37 +2563,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>25652100</v>
+        <v>25076100</v>
       </c>
       <c r="E76" s="3">
-        <v>27338400</v>
+        <v>26753900</v>
       </c>
       <c r="F76" s="3">
-        <v>27725500</v>
+        <v>27132700</v>
       </c>
       <c r="G76" s="3">
-        <v>29715900</v>
+        <v>29080500</v>
       </c>
       <c r="H76" s="3">
-        <v>31426900</v>
+        <v>30755000</v>
       </c>
       <c r="I76" s="3">
-        <v>25479300</v>
+        <v>24934500</v>
       </c>
       <c r="J76" s="3">
-        <v>31846600</v>
+        <v>31165700</v>
       </c>
       <c r="K76" s="3">
         <v>30095300</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2658,12 +2623,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2693,37 +2658,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>708000</v>
+        <v>692800</v>
       </c>
       <c r="E81" s="3">
-        <v>2502000</v>
+        <v>2448500</v>
       </c>
       <c r="F81" s="3">
-        <v>508300</v>
+        <v>497400</v>
       </c>
       <c r="G81" s="3">
-        <v>-745000</v>
+        <v>-729100</v>
       </c>
       <c r="H81" s="3">
-        <v>1170200</v>
+        <v>1145200</v>
       </c>
       <c r="I81" s="3">
-        <v>826900</v>
+        <v>809200</v>
       </c>
       <c r="J81" s="3">
-        <v>1446200</v>
+        <v>1415300</v>
       </c>
       <c r="K81" s="3">
         <v>-112700</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2737,37 +2702,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1475400</v>
+        <v>1443900</v>
       </c>
       <c r="E83" s="3">
-        <v>876300</v>
+        <v>857500</v>
       </c>
       <c r="F83" s="3">
-        <v>1355400</v>
+        <v>1326400</v>
       </c>
       <c r="G83" s="3">
-        <v>1704300</v>
+        <v>1667900</v>
       </c>
       <c r="H83" s="3">
-        <v>1059200</v>
+        <v>1036500</v>
       </c>
       <c r="I83" s="3">
-        <v>1134300</v>
+        <v>1110100</v>
       </c>
       <c r="J83" s="3">
-        <v>1390100</v>
+        <v>1360400</v>
       </c>
       <c r="K83" s="3">
         <v>1938000</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2797,7 +2762,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2827,7 +2792,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2857,7 +2822,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2887,7 +2852,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2917,37 +2882,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>580100</v>
+        <v>567700</v>
       </c>
       <c r="E89" s="3">
-        <v>620500</v>
+        <v>607200</v>
       </c>
       <c r="F89" s="3">
-        <v>3723900</v>
+        <v>3644300</v>
       </c>
       <c r="G89" s="3">
-        <v>1025500</v>
+        <v>1003600</v>
       </c>
       <c r="H89" s="3">
-        <v>4624800</v>
+        <v>4526000</v>
       </c>
       <c r="I89" s="3">
-        <v>-2256300</v>
+        <v>-2208100</v>
       </c>
       <c r="J89" s="3">
-        <v>-1376700</v>
+        <v>-1347200</v>
       </c>
       <c r="K89" s="3">
         <v>2659900</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2961,37 +2926,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-90900</v>
+        <v>-88900</v>
       </c>
       <c r="E91" s="3">
-        <v>-80800</v>
+        <v>-79100</v>
       </c>
       <c r="F91" s="3">
-        <v>-77400</v>
+        <v>-75800</v>
       </c>
       <c r="G91" s="3">
-        <v>-101000</v>
+        <v>-98800</v>
       </c>
       <c r="H91" s="3">
-        <v>-86400</v>
+        <v>-84500</v>
       </c>
       <c r="I91" s="3">
-        <v>-74100</v>
+        <v>-72500</v>
       </c>
       <c r="J91" s="3">
-        <v>-70700</v>
+        <v>-69200</v>
       </c>
       <c r="K91" s="3">
         <v>-84500</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3021,7 +2986,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3051,37 +3016,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-491400</v>
+        <v>-480900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1341900</v>
+        <v>-1313200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1209500</v>
+        <v>-1183600</v>
       </c>
       <c r="G94" s="3">
-        <v>690000</v>
+        <v>675300</v>
       </c>
       <c r="H94" s="3">
-        <v>-79700</v>
+        <v>-78000</v>
       </c>
       <c r="I94" s="3">
-        <v>578900</v>
+        <v>566600</v>
       </c>
       <c r="J94" s="3">
-        <v>265900</v>
+        <v>260200</v>
       </c>
       <c r="K94" s="3">
         <v>766500</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3095,37 +3060,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-368000</v>
+        <v>-360100</v>
       </c>
       <c r="E96" s="3">
-        <v>-329900</v>
+        <v>-322800</v>
       </c>
       <c r="F96" s="3">
-        <v>-343300</v>
+        <v>-336000</v>
       </c>
       <c r="G96" s="3">
-        <v>-327600</v>
+        <v>-320600</v>
       </c>
       <c r="H96" s="3">
-        <v>-298400</v>
+        <v>-292100</v>
       </c>
       <c r="I96" s="3">
-        <v>-362400</v>
+        <v>-354700</v>
       </c>
       <c r="J96" s="3">
-        <v>-232300</v>
+        <v>-227300</v>
       </c>
       <c r="K96" s="3">
         <v>-69300</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3155,7 +3120,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3185,7 +3150,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3215,90 +3180,90 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2687200</v>
+        <v>-2629700</v>
       </c>
       <c r="E100" s="3">
-        <v>582300</v>
+        <v>569900</v>
       </c>
       <c r="F100" s="3">
-        <v>-521700</v>
+        <v>-510600</v>
       </c>
       <c r="G100" s="3">
-        <v>-3124700</v>
+        <v>-3057900</v>
       </c>
       <c r="H100" s="3">
-        <v>802200</v>
+        <v>785100</v>
       </c>
       <c r="I100" s="3">
-        <v>-2548000</v>
+        <v>-2493600</v>
       </c>
       <c r="J100" s="3">
-        <v>3075400</v>
+        <v>3009600</v>
       </c>
       <c r="K100" s="3">
         <v>-439000</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>39300</v>
+        <v>38400</v>
       </c>
       <c r="E101" s="3">
-        <v>-219900</v>
+        <v>-215200</v>
       </c>
       <c r="F101" s="3">
-        <v>-25800</v>
+        <v>-25300</v>
       </c>
       <c r="G101" s="3">
-        <v>224400</v>
+        <v>219600</v>
       </c>
       <c r="H101" s="3">
-        <v>259200</v>
+        <v>253600</v>
       </c>
       <c r="I101" s="3">
-        <v>-88600</v>
+        <v>-86700</v>
       </c>
       <c r="J101" s="3">
-        <v>32500</v>
+        <v>31800</v>
       </c>
       <c r="K101" s="3">
         <v>125600</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2559300</v>
+        <v>-2504500</v>
       </c>
       <c r="E102" s="3">
-        <v>-359000</v>
+        <v>-351400</v>
       </c>
       <c r="F102" s="3">
-        <v>1966800</v>
+        <v>1924800</v>
       </c>
       <c r="G102" s="3">
-        <v>-1184800</v>
+        <v>-1159500</v>
       </c>
       <c r="H102" s="3">
-        <v>5606600</v>
+        <v>5486700</v>
       </c>
       <c r="I102" s="3">
-        <v>-4314100</v>
+        <v>-4221800</v>
       </c>
       <c r="J102" s="3">
-        <v>1997100</v>
+        <v>1954400</v>
       </c>
       <c r="K102" s="3">
         <v>3112900</v>
